--- a/BalanceSheet/EXPE_bal.xlsx
+++ b/BalanceSheet/EXPE_bal.xlsx
@@ -1758,19 +1758,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-108000000.0</v>
+        <v>1098000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>21000000.0</v>
+        <v>1102000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-422000000.0</v>
+        <v>1049000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-1211000000.0</v>
+        <v>1695000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>152000000.0</v>
+        <v>2827000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1813000000.0</v>
@@ -3096,19 +3096,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-120000000.0</v>
+        <v>-592000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
+        <v>-452000000.0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>-408000000.0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>-200000000.0</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>-89000000.0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>-171000000.0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>-108000000.0</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>-33000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>60000000.0</v>
